--- a/BemaerkningsFilVers1.xlsx
+++ b/BemaerkningsFilVers1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruger\Documents\Bachelorprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00B1BB08-C82E-46AF-8C1D-0E31C2D7B174}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C707D019-B60F-43FD-9145-119590D9CFF9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11500" windowHeight="8400" xr2:uid="{B3D96487-A2FC-4D60-BBCF-B4AC53D08ADA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t>Teknologi</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Sensor3</t>
-  </si>
-  <si>
-    <t>Btw.</t>
   </si>
 </sst>
 </file>
@@ -421,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C53ABE-08A2-4609-8B8D-CD8A29661281}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -490,9 +487,6 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -622,5 +616,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>